--- a/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Provincia-trans_dic.xlsx
@@ -708,35 +708,35 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08580577661200314</v>
+        <v>0.08766544584393393</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1390183820198825</v>
+        <v>0.1409023392929027</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1484416852365432</v>
+        <v>0.1480537048674279</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.107579416169555</v>
+        <v>0.1048672163897799</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0973792021379936</v>
+        <v>0.09741963971411971</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1093648973613096</v>
+        <v>0.1075991327675057</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1053439179988631</v>
+        <v>0.1065290273153726</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1273895760648463</v>
+        <v>0.1307655482804459</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1416985063536886</v>
+        <v>0.1417988817386815</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1713529808823265</v>
+        <v>0.1677620988887208</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2330195541996193</v>
+        <v>0.2368369499242412</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2515971551762863</v>
+        <v>0.2472589253962029</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.1974870070125132</v>
+        <v>0.1893128075005833</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1824961009779233</v>
+        <v>0.1808615667327083</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1893992223233871</v>
+        <v>0.1885281774876963</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.009684788617019664</v>
+        <v>0.007402671902331603</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1653477759797943</v>
+        <v>0.1656495541611153</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1951686332969679</v>
+        <v>0.198975665397838</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2028081185447759</v>
+        <v>0.2068881051741605</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.003988280996760241</v>
+        <v>0.003560938359240165</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.1275535102622883</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.171485622825388</v>
+        <v>0.1714856228253879</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1995980595262558</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2038227300812914</v>
+        <v>0.2002623606437499</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09188159811077919</v>
+        <v>0.09525411233555788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1006435232822403</v>
+        <v>0.1008915471722287</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1309627788266967</v>
+        <v>0.1306991393874611</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1639486233104443</v>
+        <v>0.1656683093161345</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07355045823859507</v>
+        <v>0.07574738590888637</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1183537055178952</v>
+        <v>0.117009610731879</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1301057191428636</v>
+        <v>0.1254764517715138</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1916330253462678</v>
+        <v>0.1961810841344433</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08992884391533437</v>
+        <v>0.09035765195021228</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1157560076545425</v>
+        <v>0.1182807342787367</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1379107333729832</v>
+        <v>0.1389972543926296</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2844663138285558</v>
+        <v>0.2802177123250968</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1532430106893585</v>
+        <v>0.1539701677885755</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1621407038196837</v>
+        <v>0.1615291171948998</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2176924471636854</v>
+        <v>0.2152629354936018</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2340523127928951</v>
+        <v>0.2343393546933705</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1253982496301893</v>
+        <v>0.1320642016963282</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1782641400304727</v>
+        <v>0.1806376534032793</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1863289476085964</v>
+        <v>0.1870315436948428</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2453969427684532</v>
+        <v>0.2474366911979666</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1315864671659879</v>
+        <v>0.130864730970364</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.158195703971032</v>
+        <v>0.1600983045484139</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1910177889449614</v>
+        <v>0.1912126788945364</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.1242881417442375</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.07490330266162026</v>
+        <v>0.07490330266162025</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1196815786703395</v>
@@ -965,7 +965,7 @@
         <v>0.1080214137199008</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07189898651955891</v>
+        <v>0.07189898651955892</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09545673758789401</v>
+        <v>0.0913981305567262</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2571558582151202</v>
+        <v>0.2501399461436269</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06432359977243197</v>
+        <v>0.06368906383412275</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04318005531209989</v>
+        <v>0.04556033319179814</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08167553320227056</v>
+        <v>0.08310219101162711</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1305562086246067</v>
+        <v>0.1274689526867306</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09387315399017419</v>
+        <v>0.0915137122473931</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05053292816997469</v>
+        <v>0.04932654226328997</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09531073949030346</v>
+        <v>0.09687635048063512</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2021097081286329</v>
+        <v>0.2004327660032527</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08682674420564726</v>
+        <v>0.08453710915535986</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05304444362062096</v>
+        <v>0.05533370181728542</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1699495656331476</v>
+        <v>0.1682496598597394</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3594349028974179</v>
+        <v>0.3587874541350007</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1301367472892783</v>
+        <v>0.1285029874863912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1000474918827306</v>
+        <v>0.1026072452044892</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1534318318813901</v>
+        <v>0.1538505298621601</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2149747642802049</v>
+        <v>0.2093533692047053</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1587791991958633</v>
+        <v>0.1657719466225721</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1059246677894301</v>
+        <v>0.1061701933039922</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1482678960066591</v>
+        <v>0.1426673305673065</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2700620774358697</v>
+        <v>0.2650055665417716</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1344538026301666</v>
+        <v>0.1319240789193953</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09299507458512671</v>
+        <v>0.09374128215226267</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.1254794404667884</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1284432653190296</v>
+        <v>0.1284432653190297</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1898126599067161</v>
+        <v>0.1855198650213574</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08686702717514537</v>
+        <v>0.09263759455579822</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1026862618159118</v>
+        <v>0.1026823906587219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09999777765212585</v>
+        <v>0.1040877611406465</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.09733617787027544</v>
+        <v>0.09760054972230675</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05739301762359</v>
+        <v>0.05456554799062863</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08420917737936603</v>
+        <v>0.08560930492516336</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08687999118177324</v>
+        <v>0.08800120499194256</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1524602379436336</v>
+        <v>0.1508714274880955</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08363709394105083</v>
+        <v>0.07913380408337818</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1030374799627703</v>
+        <v>0.1047153091880627</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1021140601484521</v>
+        <v>0.1023342751730044</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2750830549350339</v>
+        <v>0.2779410634148981</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1606880048492525</v>
+        <v>0.167055246985266</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1744311974241594</v>
+        <v>0.174469909303445</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2052769004467524</v>
+        <v>0.2093810119157696</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1649153750567903</v>
+        <v>0.1605618696227959</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1168680500332533</v>
+        <v>0.114569446699987</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1470953320749053</v>
+        <v>0.1518467864560323</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1409180723735552</v>
+        <v>0.141250289232637</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2061926299728855</v>
+        <v>0.2063539209854012</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1283354702274116</v>
+        <v>0.1285843723809348</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1510784884519178</v>
+        <v>0.1555507942892744</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1589157006800835</v>
+        <v>0.165641831393159</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.03416794706170671</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05976176199250492</v>
+        <v>0.05976176199250493</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06488073793825484</v>
@@ -1225,7 +1225,7 @@
         <v>0.003782263345223203</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.03719788359988535</v>
+        <v>0.03719788359988534</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06050650624407573</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03182801615334598</v>
+        <v>0.03063813841384579</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07242314699662906</v>
+        <v>0.07055333533062273</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01368866581844434</v>
+        <v>0.01355635358371459</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03598284340742449</v>
+        <v>0.03380631730971424</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0369718672152518</v>
+        <v>0.03700980963314222</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07475823011652048</v>
+        <v>0.07495342548153135</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01915577911573253</v>
+        <v>0.02007071526543123</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04049032390013322</v>
+        <v>0.03866644882941642</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08455564457919633</v>
+        <v>0.08497253476320259</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.008604678555699614</v>
+        <v>0.008488060783498072</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03249485706330364</v>
+        <v>0.03209734721189415</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09664065234119806</v>
+        <v>0.0953583617111549</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1547305787332453</v>
+        <v>0.1534987596450337</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06890015766674737</v>
+        <v>0.06822487351918821</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09657664982875856</v>
+        <v>0.09431913483081425</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1027043322616915</v>
+        <v>0.1025658256515865</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1591737027341443</v>
+        <v>0.156752996999756</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0189378003393152</v>
+        <v>0.0192051981788897</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06801007115620994</v>
+        <v>0.0666970365300088</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08513299964016643</v>
+        <v>0.08277430101094066</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1419640235123137</v>
+        <v>0.1403580186333867</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03608667291846935</v>
+        <v>0.03744060156073616</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06966636486143622</v>
+        <v>0.07073653278497578</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.04054788182487513</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2922545324137049</v>
+        <v>0.2922545324137047</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2093731904253924</v>
@@ -1373,7 +1373,7 @@
         <v>0.03189734868397868</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2527306217407722</v>
+        <v>0.2527306217407723</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2041191813472226</v>
+        <v>0.2008857674319211</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2763714314436384</v>
+        <v>0.2833423218340154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.007830549014557441</v>
+        <v>0.01101021186916712</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1714623683910356</v>
+        <v>0.1706277232784504</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1190350318824345</v>
+        <v>0.1239485248566278</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1816751036196071</v>
+        <v>0.1840967032031397</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02154008358267554</v>
+        <v>0.02117391040326104</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.245687766970996</v>
+        <v>0.2473752574717996</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.177810167546941</v>
+        <v>0.1761218321786965</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2425260332864785</v>
+        <v>0.2439929592889772</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01981649121105087</v>
+        <v>0.01917823704228266</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2193729584102027</v>
+        <v>0.2228944729412859</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3084499233006723</v>
+        <v>0.3084992258686831</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3954401793853121</v>
+        <v>0.3947367780666295</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04727004042886971</v>
+        <v>0.05101275936140593</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2617669727294063</v>
+        <v>0.2597282055950857</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.208829192581558</v>
+        <v>0.2091277123040745</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.286366745826897</v>
+        <v>0.2830526077553878</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07193728871468001</v>
+        <v>0.07122149556082921</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3378753265128111</v>
+        <v>0.3460538002753317</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2472465801982913</v>
+        <v>0.2473369078716228</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3208887332967909</v>
+        <v>0.3256761061954005</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05070157894929543</v>
+        <v>0.05040538604644962</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2855194247903655</v>
+        <v>0.286859726307988</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>0.1530585566060151</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1400856578600602</v>
+        <v>0.1400856578600601</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1034819749577903</v>
+        <v>0.1025205817902345</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2193744288741926</v>
+        <v>0.2235230938044059</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.115292357497501</v>
+        <v>0.1156447384580321</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1153794076447185</v>
+        <v>0.1119057121455899</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07651872789877003</v>
+        <v>0.07592008731906541</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1863200606313273</v>
+        <v>0.183712341934363</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1363828324405063</v>
+        <v>0.1356942719793515</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1114672428529749</v>
+        <v>0.1105053884123539</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.09731133552818691</v>
+        <v>0.09763092955798267</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2139618973082789</v>
+        <v>0.213864623594517</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1345772567091059</v>
+        <v>0.134813277838784</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1199459665956752</v>
+        <v>0.1198942139671041</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1604271329378527</v>
+        <v>0.158156319903645</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2891451980550835</v>
+        <v>0.2920044031606038</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.177118724600507</v>
+        <v>0.1748339636326762</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1827276381189583</v>
+        <v>0.1780429059659122</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1223761057140593</v>
+        <v>0.1229260219145632</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2522035156712059</v>
+        <v>0.2492957791957846</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1904081888653397</v>
+        <v>0.1898586144412764</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1651217587676299</v>
+        <v>0.1629979446181153</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1327914706339594</v>
+        <v>0.1341208226268351</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2613453243954474</v>
+        <v>0.2626188654282854</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.173888583615164</v>
+        <v>0.1751058197659598</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.162312179691975</v>
+        <v>0.1604502950687244</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>0.1878407115474045</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.2491061646294586</v>
+        <v>0.2491061646294585</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08617276404421882</v>
+        <v>0.08732090688970484</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05948206299819771</v>
+        <v>0.05956166482805215</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1641075268728193</v>
+        <v>0.1630597591371145</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2879474464232911</v>
+        <v>0.2859864297924927</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.07626314882376542</v>
+        <v>0.07452978984005525</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0561497386485828</v>
+        <v>0.05581933872355752</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1590839134340762</v>
+        <v>0.1587889996428024</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1544085628644333</v>
+        <v>0.1573032883766435</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.08516799164882009</v>
+        <v>0.08759888297266051</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.06234510646250065</v>
+        <v>0.06243639216643051</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1676173459546905</v>
+        <v>0.1681275513567678</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2276413171103686</v>
+        <v>0.2269421990024335</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1291334240002763</v>
+        <v>0.1311227192620762</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.09739769585418327</v>
+        <v>0.0971816128471425</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2194631046877321</v>
+        <v>0.2210401872375231</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3596412208850193</v>
+        <v>0.3575362514606465</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1182606400185414</v>
+        <v>0.1201806004394859</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.09317101213150025</v>
+        <v>0.09152061352072434</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2126473003598133</v>
+        <v>0.2149498347100852</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2061198006045569</v>
+        <v>0.2057165842933333</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1152622069248659</v>
+        <v>0.1155794302449187</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.08681141095401243</v>
+        <v>0.08824519612320186</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2073694136907961</v>
+        <v>0.2073851841744847</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2742892972796043</v>
+        <v>0.2712026238273041</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.143847546553388</v>
+        <v>0.1441681623315273</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.163796189784567</v>
+        <v>0.1621590583207338</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1231764989715528</v>
+        <v>0.1221501551165663</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1541030503092878</v>
+        <v>0.1564092147845158</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1136539755884104</v>
+        <v>0.1124466966701255</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1227850932001825</v>
+        <v>0.123278629522971</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1250090515558696</v>
+        <v>0.1246863088772536</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1232435916623572</v>
+        <v>0.1227496571733463</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.1314443443094817</v>
+        <v>0.1331820883015168</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.146452928045385</v>
+        <v>0.1462099325284876</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.127142726679158</v>
+        <v>0.1275956402206338</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1416275293917481</v>
+        <v>0.142762717467611</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1694208848364191</v>
+        <v>0.1691936911074355</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1895208409637404</v>
+        <v>0.1904677285638804</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1472605751475211</v>
+        <v>0.1461189281577772</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1840773258585659</v>
+        <v>0.1847526812632788</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1369254144854399</v>
+        <v>0.1362056538909484</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1461235814016261</v>
+        <v>0.1473085039943351</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1475704631589553</v>
+        <v>0.1484718835857695</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1442529087985298</v>
+        <v>0.1445336747949941</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1495804196739081</v>
+        <v>0.1499713120529937</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1642191328485787</v>
+        <v>0.1640271377188005</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1435961321907276</v>
+        <v>0.1447442416471867</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1594976769982665</v>
+        <v>0.1609153214168622</v>
       </c>
     </row>
     <row r="31">
@@ -2144,35 +2144,35 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>23426</v>
+        <v>23934</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40974</v>
+        <v>41529</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>43606</v>
+        <v>43492</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>28061</v>
+        <v>27353</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>27655</v>
+        <v>27667</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>31474</v>
+        <v>30966</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>56238</v>
+        <v>56870</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>73725</v>
+        <v>75679</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>82405</v>
+        <v>82464</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -2186,38 +2186,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>46781</v>
+        <v>45801</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>68680</v>
+        <v>69805</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>73909</v>
+        <v>72635</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>51512</v>
+        <v>49380</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>51828</v>
+        <v>51364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>54508</v>
+        <v>54257</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>3061</v>
+        <v>2340</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>88271</v>
+        <v>88432</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>112951</v>
+        <v>115154</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>117944</v>
+        <v>120317</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>2532</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="8">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>100500</v>
+        <v>98744</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45799</v>
+        <v>47480</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>50159</v>
+        <v>50282</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>69317</v>
+        <v>69178</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>82622</v>
+        <v>83488</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>37756</v>
+        <v>38883</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>61649</v>
+        <v>60949</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>71023</v>
+        <v>68496</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>191063</v>
+        <v>195597</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>90989</v>
+        <v>91423</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>117986</v>
+        <v>120560</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>148278</v>
+        <v>149447</v>
       </c>
     </row>
     <row r="11">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>140263</v>
+        <v>138168</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>76385</v>
+        <v>76748</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>80807</v>
+        <v>80503</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>115223</v>
+        <v>113937</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>117950</v>
+        <v>118095</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>64371</v>
+        <v>67793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>92856</v>
+        <v>94092</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>101714</v>
+        <v>102098</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>244667</v>
+        <v>246700</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>133137</v>
+        <v>132407</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>161244</v>
+        <v>163183</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>205378</v>
+        <v>205587</v>
       </c>
     </row>
     <row r="12">
@@ -2500,40 +2500,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>30436</v>
+        <v>29142</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>83090</v>
+        <v>80823</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20287</v>
+        <v>20087</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13618</v>
+        <v>14369</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27395</v>
+        <v>27873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>44224</v>
+        <v>43178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>31267</v>
+        <v>30481</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18009</v>
+        <v>17579</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>62358</v>
+        <v>63382</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>133766</v>
+        <v>132656</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>56303</v>
+        <v>54819</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>35633</v>
+        <v>37171</v>
       </c>
     </row>
     <row r="15">
@@ -2544,40 +2544,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54188</v>
+        <v>53646</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>116137</v>
+        <v>115928</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>41043</v>
+        <v>40528</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>31553</v>
+        <v>32361</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>51463</v>
+        <v>51603</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>72820</v>
+        <v>70916</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52885</v>
+        <v>55214</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>37750</v>
+        <v>37837</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>97005</v>
+        <v>93341</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>178740</v>
+        <v>175393</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>87188</v>
+        <v>85547</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>62471</v>
+        <v>62972</v>
       </c>
     </row>
     <row r="16">
@@ -2680,40 +2680,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>68080</v>
+        <v>66541</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32028</v>
+        <v>34156</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>37891</v>
+        <v>37890</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>37065</v>
+        <v>38581</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>36156</v>
+        <v>36254</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>22022</v>
+        <v>20937</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>32452</v>
+        <v>32992</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>36660</v>
+        <v>37133</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>111315</v>
+        <v>110155</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>62929</v>
+        <v>59541</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>77729</v>
+        <v>78994</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>80937</v>
+        <v>81112</v>
       </c>
     </row>
     <row r="19">
@@ -2724,40 +2724,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>98664</v>
+        <v>99689</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>59246</v>
+        <v>61594</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>64365</v>
+        <v>64379</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>76087</v>
+        <v>77608</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>61259</v>
+        <v>59642</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>44843</v>
+        <v>43961</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>56687</v>
+        <v>58518</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>59462</v>
+        <v>59602</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>150547</v>
+        <v>150665</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>96561</v>
+        <v>96748</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>113969</v>
+        <v>117343</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>125959</v>
+        <v>131290</v>
       </c>
     </row>
     <row r="20">
@@ -2860,40 +2860,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>6471</v>
+        <v>6229</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15398</v>
+        <v>15001</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2891</v>
+        <v>2863</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7400</v>
+        <v>6953</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7678</v>
+        <v>7686</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16342</v>
+        <v>16384</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4345</v>
+        <v>4552</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>16641</v>
+        <v>15891</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>36461</v>
+        <v>36641</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>3698</v>
+        <v>3648</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>14054</v>
+        <v>13882</v>
       </c>
     </row>
     <row r="23">
@@ -2904,40 +2904,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>19648</v>
+        <v>19387</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32899</v>
+        <v>32637</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14553</v>
+        <v>14411</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19862</v>
+        <v>19398</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>21328</v>
+        <v>21300</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>34794</v>
+        <v>34265</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4140</v>
+        <v>4198</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15426</v>
+        <v>15128</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>34988</v>
+        <v>34018</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>61216</v>
+        <v>60524</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>15510</v>
+        <v>16092</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>30130</v>
+        <v>30593</v>
       </c>
     </row>
     <row r="24">
@@ -3040,40 +3040,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>55278</v>
+        <v>54402</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>75195</v>
+        <v>77092</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2053</v>
+        <v>2886</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>46279</v>
+        <v>46054</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>33109</v>
+        <v>34476</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>50875</v>
+        <v>51553</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5861</v>
+        <v>5761</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>64800</v>
+        <v>65245</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>97610</v>
+        <v>96683</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>133901</v>
+        <v>134711</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>10587</v>
+        <v>10246</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>117070</v>
+        <v>118949</v>
       </c>
     </row>
     <row r="27">
@@ -3084,40 +3084,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>83532</v>
+        <v>83545</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>107591</v>
+        <v>107400</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>12392</v>
+        <v>13373</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>70653</v>
+        <v>70102</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>58085</v>
+        <v>58168</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>80192</v>
+        <v>79264</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>19574</v>
+        <v>19380</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>89115</v>
+        <v>91272</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>135727</v>
+        <v>135777</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>177166</v>
+        <v>179809</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>27088</v>
+        <v>26929</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>152370</v>
+        <v>153085</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>63644</v>
+        <v>63053</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>144750</v>
+        <v>147488</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>74260</v>
+        <v>74487</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>82779</v>
+        <v>80287</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>48761</v>
+        <v>48379</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>128687</v>
+        <v>126886</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>92404</v>
+        <v>91938</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>85899</v>
+        <v>85158</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>121860</v>
+        <v>122260</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>288958</v>
+        <v>288826</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>177863</v>
+        <v>178175</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>178488</v>
+        <v>178411</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>98667</v>
+        <v>97270</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>190787</v>
+        <v>192674</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>114083</v>
+        <v>112611</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>131098</v>
+        <v>127737</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>77983</v>
+        <v>78333</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>174191</v>
+        <v>172183</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>129009</v>
+        <v>128636</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>127246</v>
+        <v>125609</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>166290</v>
+        <v>167955</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>352949</v>
+        <v>354669</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>229818</v>
+        <v>231427</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>241532</v>
+        <v>238761</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>63433</v>
+        <v>64278</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>45772</v>
+        <v>45833</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>126571</v>
+        <v>125763</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>229803</v>
+        <v>228238</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>59203</v>
+        <v>57857</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>45726</v>
+        <v>45457</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>130903</v>
+        <v>130660</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>128032</v>
+        <v>130432</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>128809</v>
+        <v>132485</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>98746</v>
+        <v>98891</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>267203</v>
+        <v>268016</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>370429</v>
+        <v>369291</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>95057</v>
+        <v>96522</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>74949</v>
+        <v>74782</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>169266</v>
+        <v>170482</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>287020</v>
+        <v>285340</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>91805</v>
+        <v>93295</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>75874</v>
+        <v>74530</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>174977</v>
+        <v>176872</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>170910</v>
+        <v>170575</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>174324</v>
+        <v>174803</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>137497</v>
+        <v>139768</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>330572</v>
+        <v>330597</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>446337</v>
+        <v>441314</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>470218</v>
+        <v>471266</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>556751</v>
+        <v>551186</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>414522</v>
+        <v>411068</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>543254</v>
+        <v>551384</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>383127</v>
+        <v>379058</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>432624</v>
+        <v>434363</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>439808</v>
+        <v>438672</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>459780</v>
+        <v>457937</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>872773</v>
+        <v>884311</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1013817</v>
+        <v>1012135</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>875184</v>
+        <v>878302</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1027639</v>
+        <v>1035876</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>553814</v>
+        <v>553071</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>644190</v>
+        <v>647409</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>495572</v>
+        <v>491730</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>648922</v>
+        <v>651303</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>461575</v>
+        <v>459149</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>514856</v>
+        <v>519031</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>519184</v>
+        <v>522355</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>538158</v>
+        <v>539206</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>993194</v>
+        <v>995789</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1136803</v>
+        <v>1135474</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>988441</v>
+        <v>996344</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1157303</v>
+        <v>1167590</v>
       </c>
     </row>
     <row r="40">
